--- a/BACE-Biotechnician Assistant Credentialing Exam-questionstats-20150716_1....xlsx
+++ b/BACE-Biotechnician Assistant Credentialing Exam-questionstats-20150716_1....xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwojo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Github\Biotility\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18216" windowHeight="12168"/>
   </bookViews>
   <sheets>
     <sheet name="BACE-Biotechnician Assistant Cr" sheetId="1" r:id="rId1"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,7 +1054,9 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1075,9 +1077,7 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1367,10 +1367,10 @@
     <tableColumn id="5" name="Facility index" dataDxfId="6"/>
     <tableColumn id="6" name="Standard deviation" dataDxfId="5"/>
     <tableColumn id="7" name="Random guess score" dataDxfId="4"/>
-    <tableColumn id="8" name="Intended weight" dataDxfId="3"/>
-    <tableColumn id="9" name="Effective weight" dataDxfId="2"/>
-    <tableColumn id="10" name="Discrimination index" dataDxfId="1"/>
-    <tableColumn id="11" name="Discriminative efficiency" dataDxfId="0"/>
+    <tableColumn id="8" name="Intended weight" dataDxfId="0"/>
+    <tableColumn id="9" name="Effective weight" dataDxfId="3"/>
+    <tableColumn id="10" name="Discrimination index" dataDxfId="2"/>
+    <tableColumn id="11" name="Discriminative efficiency" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1668,28 +1668,28 @@
   </sheetPr>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="54" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.296875" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1"/>
+    <col min="10" max="10" width="14.09765625" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="82.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1736,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>4.5900000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="3"/>
@@ -1800,7 +1800,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="27.6">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0.28420000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.42359999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="27.6">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0.40250000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="27.6">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0.56320000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.27779999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="41.4">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0.53310000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>-3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0.43809999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27.6">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.27110000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="27.6">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0.4748</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="27.6">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0.31309999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.37430000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="27.6">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0.65790000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="27.6">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0.30690000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="27.6">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0.43640000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="41.4">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0.45390000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0.28720000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="27.6">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>0.42509999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="27.6">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="27.6">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.54049999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="27.6">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0.29959999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0.39129999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="27.6">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0.35659999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0.53149999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <v>29</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0.42080000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0.46439999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.57650000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="27.6">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0.3115</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>0.37980000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>0.57909999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <v>36</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0.38640000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0.45190000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="27.6">
       <c r="A42" s="4">
         <v>38</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0.37540000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="27.6">
       <c r="A43" s="4">
         <v>39</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0.46489999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="15">
         <v>40</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <v>41</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0.54179999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <v>42</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0.28520000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="27.6">
       <c r="A47" s="4">
         <v>43</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0.4763</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="27.6">
       <c r="A48" s="15">
         <v>44</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>-0.12089999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="27.6">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>46</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.36630000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="4">
         <v>47</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0.18720000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>48</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0.39379999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="27.6">
       <c r="A53" s="4">
         <v>49</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0.46870000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>50</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>51</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0.3387</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>52</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0.46579999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>53</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0.36849999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="4">
         <v>54</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0.51249999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="27.6">
       <c r="A59" s="15">
         <v>55</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="27.6">
       <c r="A60" s="4">
         <v>56</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0.4546</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>57</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0.2344</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>58</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0.41870000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="55.2">
       <c r="A63" s="4">
         <v>59</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0.48420000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="41.4">
       <c r="A64" s="4">
         <v>60</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="27.6">
       <c r="A65" s="4">
         <v>61</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="27.6">
       <c r="A66" s="4">
         <v>62</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>0.37809999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>63</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0.52480000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>64</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0.42380000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="41.4">
       <c r="A69" s="4">
         <v>65</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0.24149999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="27.6">
       <c r="A70" s="4">
         <v>66</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0.3039</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>67</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0.51419999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="27.6">
       <c r="A72" s="4">
         <v>68</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0.2369</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>69</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>70</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0.29959999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>71</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0.2223</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>72</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0.40539999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="15">
         <v>73</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>74</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>0.31290000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="9">
         <v>75</v>
       </c>
